--- a/02_programme_task/xlsx_out/35.Habakkuk.xlsx
+++ b/02_programme_task/xlsx_out/35.Habakkuk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,660 +448,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Habakkuk 1:2</t>
+          <t>Habakkuk 1:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O Lord , how long shall I cry for help, - and you will not hear - Or cry to you Violence! - and you will not save -</t>
+          <t>Habakkuk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Habakkuk 1:3</t>
+          <t>Habakkuk 1:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Why do you make me see iniquity, - and why do you idly look at wrong - Destruction and violence are before me; - strife and contention arise. -</t>
+          <t>a The oracle that Habakkuk the prophet saw. Habakkuk s Complaint</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Habakkuk 1:4</t>
+          <t>Habakkuk 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>So the law is paralyzed, - and justice never goes forth. - For the wicked surround the righteous; - so justice goes forth perverted. The Lord15's Answer -</t>
+          <t>O Lord, b how long shall I cry for help, and you will not hear? Or cry to you c Violence! and you will not save?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Habakkuk 1:5</t>
+          <t>Habakkuk 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Look among the nations, and see; - wonder and be astounded. - For I am doing a work in your days - that you would not believe if told. -</t>
+          <t>d Why do you make me see iniquity, and why do you idly look at wrong? Destruction c and violence are before me; strife and contention arise.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Habakkuk 1:6</t>
+          <t>Habakkuk 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For behold, I m raising up the Chaldeans, - that bitter and hasty nation, - who march through the breadth of the earth, - to seize dwellings not their own. -</t>
+          <t>e So the law is paralyzed, and justice never goes forth. f For the wicked surround the righteous; so justice goes forth perverted. The Lord s Answer</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Habakkuk 1:7</t>
+          <t>Habakkuk 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>They are dreaded and fearsome; - their justice and dignity go forth from themselves. -</t>
+          <t>g Look among the nations, and see; wonder and be astounded. h For I am doing a work in your days that you would not believe if told.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Habakkuk 1:8</t>
+          <t>Habakkuk 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Their horses are swifter than leopards, - more fierce than the evening wolves; their horsemen press proudly on. - Their horsemen come from afar; - they fly like an eagle swift to devour. -</t>
+          <t>For behold, i I am raising up the Chaldeans, that bitter and hasty nation, j who march through the breadth of the earth, k to seize dwellings not their own.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Habakkuk 1:9</t>
+          <t>Habakkuk 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>They all come for violence, - all their faces forward. They gather captives like sand. -</t>
+          <t>They are dreaded and fearsome; l their justice and dignity go forth from themselves.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Habakkuk 1:10</t>
+          <t>Habakkuk 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>At kings they scoff, - and at rulers they laugh. - They laugh at every fortress, - for they pile up earth and take it. -</t>
+          <t>m Their horses are swifter than leopards, more fierce than n the evening wolves; their horsemen press proudly on. Their horsemen come from afar; o they fly like an eagle swift to devour.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Habakkuk 1:11</t>
+          <t>Habakkuk 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Then they sweep by like the wind and go on, - guilty men, whose own might is their god! Habakkuk's Second Complaint -</t>
+          <t>They all come p for violence, all their faces forward. They gather captives r like sand.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Habakkuk 1:12</t>
+          <t>Habakkuk 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Are you not from everlasting, - O Lord my God, my Holy One We shall not die. - O Lord , you have ordained them as a judgment, - and you, O Rock, have established them for reproof. -</t>
+          <t>At kings they scoff, and at rulers they laugh. s They laugh at every fortress, for t they pile up earth and take it.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Habakkuk 1:13</t>
+          <t>Habakkuk 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>You who are of purer eyes than to see evil - and cannot look at wrong, - why do you idly look at traitors - and remain silent when the wicked swallows up the man more righteous than he -</t>
+          <t>Then they sweep by like the wind and go on, u guilty men, v whose own might is their god! Habakkuk s Second Complaint</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Habakkuk 1:14</t>
+          <t>Habakkuk 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>You make mankind like the fish of the sea, - like crawling things that have no ruler. -</t>
+          <t>Are you not w from everlasting, O Lord my God, my Holy One? x We shall not die. O Lord, y you have ordained them as a judgment, and you, O z Rock, have established them for reproof.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Habakkuk 1:15</t>
+          <t>Habakkuk 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>H16 e brings all of them up with a hook; - he drags them out with his net; - he gathers them in his dragnet; - so he rejoices and is glad. -</t>
+          <t>You who are a of purer eyes than to see evil and cannot look at wrong, b why do you idly look at traitors and c remain silent when the wicked swallows up the man more righteous than he?</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Habakkuk 1:16</t>
+          <t>Habakkuk 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Therefore he sacrifices to his net - and makes offerings to his dragnet; - for by them he lives in luxury, - and his food is rich. -</t>
+          <t>You make mankind like the fish of the sea, like crawling things that have no ruler.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Habakkuk 1:17</t>
+          <t>Habakkuk 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Is he then to keep on emptying his net - and mercilessly killing nations forever - 2 -</t>
+          <t>d H e brings all of them up e with a hook; he drags them out with his net; he gathers them in his dragnet; so he rejoices and is glad.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Habakkuk 2:1</t>
+          <t>Habakkuk 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I will take my stand at my watchpost - and station myself on the tower, - and look out to see what he will say to me, - and what I will answer concerning my complaint. The Righteous Shall Live by His Faith 2</t>
+          <t>f Therefore he sacrifices to his net and makes offerings to his dragnet; for by them he lives in luxury, and his food is rich.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Habakkuk 2:2</t>
+          <t>Habakkuk 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And the Lord answered me: - Write the vision; - make it plain on tablets, so he may run who reads it. -</t>
+          <t>Is he then to keep on emptying his net g and mercilessly killing nations forever? 2:1 I will h take my stand at my watchpost and station myself on the tower, and i look out to see j what he will say to me, and what I will answer concerning my complaint. The Righteous Shall Live by His Faith</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Habakkuk 2:3</t>
+          <t>Habakkuk 2:2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>For still the vision awaits its appointed time; - it hastens to the en16 d it will not lie. - If it seems slow, wait for it; - it will surely come; it will not delay. -</t>
+          <t>And the Lord answered me: k Write the vision; make it plain on tablets, so he may run who reads it.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Habakkuk 2:4</t>
+          <t>Habakkuk 2:3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Behold, his soul is puffed up; it is not upright within him, - but the righteous shall live by his faith. -</t>
+          <t>For still l the vision awaits its appointed time; it hastens to the en d it will not lie. If it seems slow, m wait for it; n it will surely come; it will not delay.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Habakkuk 2:5</t>
+          <t>Habakkuk 2:4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Moreover, win16 e is a traitor, - an arrogant man who is never at rest. - His greed is as wide as Sheol; - like death he has never enough. - He gathers for himself all nations - and collects as his own all peoples. Woe to the Chaldeans 6</t>
+          <t>Behold, his soul is puffed up; it is not upright within him, but o the righteous shall live by his faith.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Habakkuk 2:6</t>
+          <t>Habakkuk 2:5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shall not all these take up their taunt against him, with scoffing and riddles for him, and say, - Woe to him who heaps up what is not his ow16 n16 - for how long16 and loads himself with pledges! -</t>
+          <t>Moreover, win e is p a traitor, an arrogant man who is never at rest. His greed is as wide as Sheol; like death q he has never enough. r He gathers for himself all nations and collects as his own all peoples. Woe to the Chaldeans</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Habakkuk 2:7</t>
+          <t>Habakkuk 2:6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Will not your debtors suddenly arise, - and those awake who will make you tremble Then you will be spoil for them. -</t>
+          <t>Shall not all these s take up their taunt against him, with scoffing and riddles for him, and say, t Woe to him u who heaps up what is not his ow n for v how long? and w loads himself with pledges!</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Habakkuk 2:8</t>
+          <t>Habakkuk 2:7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Because you have plundered many nations, - all the remnant of the peoples shall plunder you, - for the blood of man and violence to the earth, - to cities and all who dwell in them. -</t>
+          <t>x Will not your debtors suddenly arise, and those awake who will make you tremble? Then you will be spoil for them.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Habakkuk 2:9</t>
+          <t>Habakkuk 2:8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Woe to him who gets evil gain for his house, - to set his nest on high, to be safe from the reach of harm! -</t>
+          <t>y Because you have plundered many nations, all the remnant of the peoples shall plunder you, z for the blood of man and y violence to the earth, to cities and all who dwell in them.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Habakkuk 2:10</t>
+          <t>Habakkuk 2:9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>You have devised shame for your house - by cutting off many peoples; you have forfeited your life. -</t>
+          <t>t Woe to him who gets evil gain for his house, a to b set his nest on high, to be safe from the reach of harm!</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Habakkuk 2:11</t>
+          <t>Habakkuk 2:10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>For the stone will cry out from the wall, - and the beam from the woodwork respond. -</t>
+          <t>You have devised shame for your house c by cutting off many peoples; you have forfeited your life.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Habakkuk 2:12</t>
+          <t>Habakkuk 2:11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Woe to him who builds a town with blood - and founds a city on iniquity! -</t>
+          <t>For d the stone will cry out from the wall, and the beam from the woodwork respond.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Habakkuk 2:13</t>
+          <t>Habakkuk 2:12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Behold, is it not from the Lord of hosts - that peoples labor merely for fire, and nations weary themselves for nothing -</t>
+          <t>t Woe to him e who builds a town with blood and founds a city on iniquity!</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Habakkuk 2:14</t>
+          <t>Habakkuk 2:13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For the earth will be filled - with the knowledge of the glory of the Lord - as the waters cover the sea. -</t>
+          <t>Behold, is it not from the Lord of hosts that f peoples labor merely for fire, and nations weary themselves for nothing?</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Habakkuk 2:15</t>
+          <t>Habakkuk 2:14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Woe to him who makes his neighbors drin16 k16 - you pour out your wrath and make them drunk, in order to gaze at their nakedness! -</t>
+          <t>g For the earth will be filled with the knowledge of h the glory of the Lord as the waters cover the sea.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Habakkuk 2:16</t>
+          <t>Habakkuk 2:15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>You will have your fill of shame instead of glory. - Drink, yourself, and show your uncircumcision! - The cup in the Lord's right hand - will come around to you, - and utter shame will come upon your glory! -</t>
+          <t>t Woe to him i who makes his neighbors drin k you pour out your wrath and make them drunk, in order to gaze j at their nakedness!</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Habakkuk 2:17</t>
+          <t>Habakkuk 2:16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The violence done to Lebanon will overwhelm you, - as will the destruction of the beasts that terrified them, - for the blood of man and violence to the earth, - to cities and all who dwell in them. -</t>
+          <t>You will have your fill k of shame instead of glory. l Drink, yourself, and show your uncircumcision! l The cup in the Lord s right hand will come around to you, and m utter shame will come upon your glory!</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Habakkuk 2:18</t>
+          <t>Habakkuk 2:17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>What profit is an idol - when its maker has shaped it, a metal image, a teacher of lies - For its maker trusts in his own creation - when he makes speechless idols! -</t>
+          <t>n The violence o done to Lebanon will overwhelm you, as will the destruction of the beasts that terrified them, n for the blood of man and violence to the earth, to cities and all who dwell in them.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Habakkuk 2:19</t>
+          <t>Habakkuk 2:18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Woe to him who says to a wooden thing, Awake; - to a silent stone, Arise! - Can this teach Behold, it is overlaid with gold and silver, - and there is no breath at all in it. -</t>
+          <t>p What profit is an idol when its maker has shaped it, a metal image, q a teacher of lies? For its maker trusts in his own creation when he makes r speechless idols!</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Habakkuk 2:20</t>
+          <t>Habakkuk 2:19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>But the Lord is in his holy temple; - let all the earth keep silence before him. Habakkuk's Prayer 3</t>
+          <t>s Woe to him t who says to a wooden thing, Awake; to a silent stone, Arise! Can this teach? Behold, it is overlaid with gold and silver, and u there is no breath at all in it.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Habakkuk 3:1</t>
+          <t>Habakkuk 2:20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A prayer of Habakkuk the prophet, according to Shigionoth. -</t>
+          <t>But v the Lord is in his holy temple; w let all the earth keep silence before him. Habakkuk s Prayer</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Habakkuk 3:2</t>
+          <t>Habakkuk 3:1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O Lord , I have heard the report of you, - and your work, O Lord , do I fear. - In the midst of the years revive it; - in the midst of the years make it known; in wrath remember mercy. -</t>
+          <t>A prayer of Habakkuk the prophet, according to Shigionoth.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Habakkuk 3:3</t>
+          <t>Habakkuk 3:2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>God came from Teman, - and the Holy One from Mount Paran. Selah16 - His splendor covered the heavens, - and the earth was full of his praise. -</t>
+          <t>O Lord, x I have heard the report of you, and y your work, O Lord, do I fear. In the midst of the years z revive it; in the midst of the years make it known; a in wrath remember mercy.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Habakkuk 3:4</t>
+          <t>Habakkuk 3:3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>His brightness was like the light; - rays flashed from his hand; and there he veiled his power. -</t>
+          <t>God came from b Teman, c and the Holy One from Mount Paran. Selah His splendor covered the heavens, and the earth was full of his praise.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Habakkuk 3:5</t>
+          <t>Habakkuk 3:4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Before him went pestilence, - and plague followed at his heels. -</t>
+          <t>d His brightness was like the light; rays flashed from his hand; and there he veiled his power.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Habakkuk 3:6</t>
+          <t>Habakkuk 3:5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>He stood and measured the earth; - he looked and shook the nations; - then the eternal mountains were scattered; - the everlasting hills sank low. His were the everlasting ways. -</t>
+          <t>e Before him went pestilence, and plague followed f at his heels.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Habakkuk 3:7</t>
+          <t>Habakkuk 3:6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I saw the tents of Cushan in affliction; - the curtains of the land of Midian did tremble. -</t>
+          <t>He stood g and measured the earth; he looked and shook the nations; then the h eternal mountains i were scattered; the everlasting hills sank low. His were j the everlasting ways.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Habakkuk 3:8</t>
+          <t>Habakkuk 3:7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Was your wrath against the rivers, O Lord - Was your anger against the rivers, or your indignation against the sea, - when you rode on your horses, - on your chariot of salvation -</t>
+          <t>I saw the tents of k Cushan in affliction; l the curtains of the land of Midian did tremble.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Habakkuk 3:9</t>
+          <t>Habakkuk 3:8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>You stripped the sheath from your bow, - calling for many arrows. Selah16 You split the earth with rivers. -</t>
+          <t>m Was your wrath against the rivers, O Lord? Was your anger against the rivers, m or your indignation against the sea, n when you rode on your horses, n on your chariot of salvation?</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Habakkuk 3:10</t>
+          <t>Habakkuk 3:9</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The mountains saw you and writhed; - the raging waters swept on; - the deep gave forth its voice; - it lifted its hands on high. -</t>
+          <t>You stripped the sheath from your bow, calling for many arrows.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Habakkuk 3:11</t>
+          <t>Habakkuk 3:10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The sun and moon stood still in their place - at the light of your arrows as they sped, at the flash of your glittering spear. -</t>
+          <t>Selah p You split the earth with rivers.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Habakkuk 3:12</t>
+          <t>Habakkuk 3:10</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>You marched through the earth in fury; - you threshed the nations in anger. -</t>
+          <t>q The mountains saw you and writhed; the raging waters swept on; r the deep gave forth its voice; s it lifted its hands on high.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Habakkuk 3:13</t>
+          <t>Habakkuk 3:11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>You went out for the salvation of your people, - for the salvation of your anointed. - You crushed the head of the house of the wicked, - laying him bare from thigh to neck. Selah16 -</t>
+          <t>t The sun and moon stood still in their place u at the light of your arrows as they sped, at the flash of your glittering spear.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Habakkuk 3:14</t>
+          <t>Habakkuk 3:12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>You pierced with his own arrows the heads of his warriors, - who came like a whirlwind to scatter me, rejoicing as if to devour the poor in secret. -</t>
+          <t>v You marched through the earth in fury; w you threshed the nations in anger.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Habakkuk 3:15</t>
+          <t>Habakkuk 3:13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>You trampled the sea with your horses, - the surging of mighty waters. -</t>
+          <t>v You went out for the salvation of your people, for the salvation of x your anointed. y You crushed the head of the house of the wicked, laying him bare from thigh to neck.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Habakkuk 3:16</t>
+          <t>Habakkuk 3:14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>I hear, and my body trembles; - my lips quiver at the sound; - rottenness enters into my bones; - my legs tremble beneath me. - Yet I will quietly wait for the day of trouble - to come upon people who invade us. Habakkuk Rejoices in the Lord15 -</t>
+          <t>Selah</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Habakkuk 3:17</t>
+          <t>Habakkuk 3:14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Though the fig tree should not blossom, - nor fruit be on the vines, - the produce of the olive fail - and the fields yield no food, - the flock be cut off from the fold - and there be no herd in the stalls, -</t>
+          <t>You pierced with his own arrows the heads of his warriors, who came like a whirlwind to scatter me, rejoicing as if to devour the poor in secret.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Habakkuk 3:18</t>
+          <t>Habakkuk 3:15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>yet I will rejoice in the Lord ; - I will take joy in the God of my salvation. -</t>
+          <t>z You trampled the sea with your horses, the surging of mighty waters.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Habakkuk 3:16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a I hear, and b my body trembles; my lips quiver at the sound; c rottenness enters into my bones; my legs tremble beneath me. Yet d I will quietly wait for the day of trouble to come upon people who invade us. Habakkuk Rejoices in the Lord</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Habakkuk 3:17</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Though the fig tree should not blossom, nor fruit be on the vines, the produce of the olive fail and the fields yield no food, the flock be cut off from the fold and there be no herd in the stalls,</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Habakkuk 3:18</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>e yet I will rejoice in the Lord; f I will take joy in the God of my salvation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Habakkuk 3:19</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>God16 , the Lord, is my strength; - he makes my feet like the deer's; - he makes me tread on my high places. - To the choirmaster: with stringe16 d instruments.</t>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>God, the Lord, is my strength; g he makes my feet like the deer s; he makes me h tread on my i high places. j To the choirmaster: with k stringe d instruments.</t>
         </is>
       </c>
     </row>
